--- a/data/model_mediums/defined_media/kwoji/kwoji.xlsx
+++ b/data/model_mediums/defined_media/kwoji/kwoji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/ycy3t7jjvtr9b5h8_students_rwth-aachen_de/Documents/RWTH/Biotechnologie M. Sc/Masterarbeit/lmurinus_gem/mediums/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/ycy3t7jjvtr9b5h8_students_rwth-aachen_de/Documents/RWTH/Biotechnologie M. Sc/Masterarbeit/lmurinus_gem/data/model_mediums/defined_media/kwoji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1010" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2B9E90-47CC-4978-9539-57AB13A19D9F}"/>
+  <xr:revisionPtr revIDLastSave="1016" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3128D523-6778-4564-AA36-21E926C2FB4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="222">
   <si>
     <t>Reaction</t>
   </si>
@@ -737,7 +737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,11 +829,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -1258,14 +1273,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1305,12 +1312,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7EDA9CF-183D-4DE6-B3F8-E34F47C7AFE5}" name="Table2" displayName="Table2" ref="A1:M77" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:M77" xr:uid="{D7EDA9CF-183D-4DE6-B3F8-E34F47C7AFE5}">
-    <filterColumn colId="6">
-      <colorFilter dxfId="27"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7EDA9CF-183D-4DE6-B3F8-E34F47C7AFE5}" name="Table2" displayName="Table2" ref="A1:M76" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:M76" xr:uid="{D7EDA9CF-183D-4DE6-B3F8-E34F47C7AFE5}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A5161577-C6DE-4FE2-A90A-95510E158314}" name="Constituents" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{0D9E5566-C93E-42E3-8C64-9BA9A5DC796C}" name="Conc. in CDM (g/L)" dataDxfId="25"/>
@@ -1628,24 +1631,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794933BD-2EBE-4FDC-A981-C53C2BE8FFC4}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.140625" style="3" customWidth="1"/>
@@ -1694,208 +1697,197 @@
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
         <f>IF(COUNTIF(G$2:G2,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="K2" s="3">
         <v>1000</v>
       </c>
       <c r="L2" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00588_e0"</v>
+        <v>"EX_cpd00009_e0"</v>
       </c>
       <c r="M2" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-10,1000)</v>
+        <v>(-60,1000)</v>
       </c>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3">
         <f>IF(COUNTIF(G$2:G3,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="J3" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-60</v>
+        <v>-95</v>
       </c>
       <c r="K3" s="3">
         <v>1000</v>
       </c>
       <c r="L3" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00009_e0"</v>
+        <v>"EX_cpd00205_e0"</v>
       </c>
       <c r="M3" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-60,1000)</v>
+        <v>(-95,1000)</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <f>IF(COUNTIF(G$2:G4,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J4" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-95</v>
+        <v>-92</v>
       </c>
       <c r="K4" s="3">
         <v>1000</v>
       </c>
       <c r="L4" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00205_e0"</v>
+        <v>"EX_cpd00067_e0"</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-95,1000)</v>
+        <v>(-92,1000)</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="A5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="3" t="str">
         <f>IF(COUNTIF(G$2:G5,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J5" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-92</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="L5" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00067_e0"</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-92,1000)</v>
+        <v>"EX_cpd00009_e0"</v>
       </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -1907,32 +1899,33 @@
       </c>
       <c r="L6" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00009_e0"</v>
+        <v>"EX_cpd00205_e0"</v>
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(COUNTIF(G$2:G7,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -1940,64 +1933,76 @@
       </c>
       <c r="L7" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00205_e0"</v>
+        <v>"EX_cpd00067_e0"</v>
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="3">
         <f>IF(COUNTIF(G$2:G8,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-25</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1000</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00067_e0"</v>
+        <v>"EX_cpd00254_e0"</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-25,1000)</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11">
         <v>2.5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+      <c r="C9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -2005,182 +2010,174 @@
       </c>
       <c r="I9" s="3">
         <f>IF(COUNTIF(G$2:G9,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>2.5</v>
+        <v>2.5559999999999996</v>
       </c>
       <c r="J9" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-25</v>
+        <v>-25.559999999999995</v>
       </c>
       <c r="K9" s="3">
         <v>1000</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00254_e0"</v>
+        <v>"EX_cpd00048_e0"</v>
       </c>
       <c r="M9" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-25,1000)</v>
+        <v>(-25.56,1000)</v>
       </c>
       <c r="N9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11">
         <v>2.5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="I10" s="3">
         <f>IF(COUNTIF(G$2:G10,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>2.5559999999999996</v>
+        <v>18.021000000000001</v>
       </c>
       <c r="J10" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-25.559999999999995</v>
+        <v>-180.21</v>
       </c>
       <c r="K10" s="3">
         <v>1000</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00048_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="M10" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-25.56,1000)</v>
+        <v>(-180.21,1000)</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
+      <c r="A11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>17.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I11" s="3">
         <f>IF(COUNTIF(G$2:G11,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>18.021000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J11" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-180.21</v>
+        <v>-0.25</v>
       </c>
       <c r="K11" s="3">
         <v>1000</v>
       </c>
       <c r="L11" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
+        <v>"EX_cpd00030_e0"</v>
       </c>
       <c r="M11" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-180.21,1000)</v>
+        <v>(-0.25,1000)</v>
       </c>
       <c r="N11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
+      <c r="C12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="str">
         <f>IF(COUNTIF(G$2:G12,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00048_e0"</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J12" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.25</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00030_e0"</v>
-      </c>
-      <c r="M12" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.25,1000)</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>IF(COUNTIF(G$2:G13,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2188,203 +2185,206 @@
       </c>
       <c r="L13" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00048_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
         <f>IF(COUNTIF(G$2:G14,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1000</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
+        <v>"EX_cpd00013_e0"</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-10,1000)</v>
       </c>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <f>IF(COUNTIF(G$2:G15,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1</v>
+        <v>2.702</v>
       </c>
       <c r="J15" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-10</v>
+        <v>-27.02</v>
       </c>
       <c r="K15" s="3">
         <v>1000</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00013_e0"</v>
+        <v>"EX_cpd00099_e0"</v>
       </c>
       <c r="M15" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-10,1000)</v>
+        <v>(-27.02,1000)</v>
       </c>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="I16" s="3">
         <f>IF(COUNTIF(G$2:G16,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>2.702</v>
+        <v>0.02</v>
       </c>
       <c r="J16" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-27.02</v>
+        <v>-0.2</v>
       </c>
       <c r="K16" s="3">
         <v>1000</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00099_e0"</v>
+        <v>"EX_cpd10515_e0"</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-27.02,1000)</v>
+        <v>(-0.2,1000)</v>
       </c>
       <c r="N16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11">
         <v>0.02</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
+      <c r="C17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>0.02</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="str">
         <f>IF(COUNTIF(G$2:G17,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00048_e0"</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11">
         <v>0.02</v>
       </c>
-      <c r="J17" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd10515_e0"</v>
-      </c>
-      <c r="M17" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.2,1000)</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>IF(COUNTIF(G$2:G18,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2392,236 +2392,240 @@
       </c>
       <c r="L18" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00048_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="3" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="3">
         <f>IF(COUNTIF(G$2:G19,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
-      </c>
-      <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="3">
-        <f>IF(COUNTIF(G$2:G20,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
         <v>5.2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J19" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
         <v>-52</v>
       </c>
-      <c r="K20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L20" s="1" t="str">
+      <c r="K19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
         <v>"EX_cpd00971_e0"</v>
       </c>
-      <c r="M20" s="3" t="str">
+      <c r="M19" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
         <v>(-52,1000)</v>
       </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="3">
+        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>IF(COUNTIF(G$2:G20,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00067_e0"</v>
+      </c>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11">
         <v>0.2</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
+      <c r="C21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H21" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>0.2</v>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" s="3">
         <f>IF(COUNTIF(G$2:G21,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1000</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00067_e0"</v>
+        <v>"EX_cpd00011_e0"</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-2,1000)</v>
       </c>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>35</v>
+      <c r="A22" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="H22" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
+        <v>1E-3</v>
       </c>
       <c r="I22" s="3">
         <f>IF(COUNTIF(G$2:G22,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.2</v>
+        <v>1E-3</v>
       </c>
       <c r="J22" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-2</v>
+        <v>-0.01</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
       <c r="L22" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00011_e0"</v>
+        <v>"EX_cpd00149_e0"</v>
       </c>
       <c r="M22" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-2,1000)</v>
+        <v>(-0.01,1000)</v>
       </c>
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11">
         <v>1E-3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>219</v>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H23" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f>IF(COUNTIF(G$2:G23,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00099_e0"</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I23" s="3">
-        <f>IF(COUNTIF(G$2:G23,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.01</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00149_e0"</v>
-      </c>
-      <c r="M23" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.01,1000)</v>
-      </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6</v>
+      </c>
+      <c r="E24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>IF(COUNTIF(G$2:G24,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2629,108 +2633,110 @@
       </c>
       <c r="L24" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00099_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="H25" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I25" s="3" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="3">
         <f>IF(COUNTIF(G$2:G25,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="3">
         <v>0.1</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="3">
-        <f>IF(COUNTIF(G$2:G26,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J25" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
         <v>-1</v>
       </c>
-      <c r="K26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L26" s="1" t="str">
+      <c r="K25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
         <v>"EX_cpd00063_e0"</v>
       </c>
-      <c r="M26" s="3" t="str">
+      <c r="M25" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
         <v>(-1,1000)</v>
       </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3">
+        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>IF(COUNTIF(G$2:G26,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00099_e0"</v>
+      </c>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11">
         <v>0.1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="12">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
+      <c r="E27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -2742,112 +2748,114 @@
       </c>
       <c r="L27" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00099_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>28</v>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="H28" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="I28" s="3" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="3">
         <f>IF(COUNTIF(G$2:G28,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
-      </c>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="3">
         <v>0.01</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H29" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="3">
-        <f>IF(COUNTIF(G$2:G29,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J28" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
         <v>-0.1</v>
       </c>
-      <c r="K29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L29" s="1" t="str">
+      <c r="K28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
         <v>"EX_cpd00034_e0"</v>
       </c>
-      <c r="M29" s="3" t="str">
+      <c r="M28" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
         <v>(-0.1,1000)</v>
       </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
+        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>IF(COUNTIF(G$2:G29,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00048_e0"</v>
+      </c>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11">
         <v>0.01</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
+      <c r="C30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="12">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>IF(COUNTIF(G$2:G30,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2855,32 +2863,29 @@
       </c>
       <c r="L30" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00048_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="B31" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>28</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>7.0000000000000007E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>IF(COUNTIF(G$2:G31,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2888,29 +2893,35 @@
       </c>
       <c r="L31" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
+        <v/>
       </c>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B32" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>IF(COUNTIF(G$2:G32,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -2918,19 +2929,16 @@
       </c>
       <c r="L32" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v/>
+        <v>"EX_cpd00205_e0"</v>
       </c>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>189</v>
-      </c>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>0.5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2939,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H33" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -2954,112 +2962,112 @@
       </c>
       <c r="L33" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00205_e0"</v>
+        <v>"EX_cpd00099_e0"</v>
       </c>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="B34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="H34" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="3" t="str">
+        <v>1E-3</v>
+      </c>
+      <c r="I34" s="3">
         <f>IF(COUNTIF(G$2:G34,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>1E-3</v>
+      </c>
+      <c r="J34" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1000</v>
       </c>
       <c r="L34" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00099_e0"</v>
+        <v>"EX_cpd00058_e0"</v>
+      </c>
+      <c r="M34" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-0.01,1000)</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="B35" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>218</v>
+      <c r="C35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H35" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>1E-3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="str">
         <f>IF(COUNTIF(G$2:G35,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J35" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.01</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="L35" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00058_e0"</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.01,1000)</v>
+        <v>"EX_cpd00048_e0"</v>
       </c>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>1E-3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H36" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>IF(COUNTIF(G$2:G36,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -3067,32 +3075,35 @@
       </c>
       <c r="L36" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00048_e0"</v>
+        <v>"EX_cpd00001_e0"</v>
       </c>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="B37" s="3">
-        <v>1E-3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3">
+        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>5</v>
-      </c>
-      <c r="E37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I37" s="3" t="str">
         <f>IF(COUNTIF(G$2:G37,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -3100,19 +3111,16 @@
       </c>
       <c r="L37" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00001_e0"</v>
+        <v>"EX_cpd00971_e0"</v>
       </c>
       <c r="N37"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>191</v>
-      </c>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3121,31 +3129,45 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>5</v>
       </c>
-      <c r="I38" s="3" t="str">
+      <c r="I38" s="3">
         <f>IF(COUNTIF(G$2:G38,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="J38" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-50</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1000</v>
       </c>
       <c r="L38" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00971_e0"</v>
+        <v>"EX_cpd00029_e0"</v>
+      </c>
+      <c r="M38" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-50,1000)</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -3154,45 +3176,45 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H39" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I39" s="3">
         <f>IF(COUNTIF(G$2:G39,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J39" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-50</v>
+        <v>-0.05</v>
       </c>
       <c r="K39" s="3">
         <v>1000</v>
       </c>
       <c r="L39" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00029_e0"</v>
+        <v>"EX_cpd00028_e0"</v>
       </c>
       <c r="M39" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-50,1000)</v>
+        <v>(-0.05,1000)</v>
       </c>
       <c r="N39"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -3201,119 +3223,119 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H40" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="I40" s="3">
         <f>IF(COUNTIF(G$2:G40,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="J40" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.05</v>
+        <v>-2</v>
       </c>
       <c r="K40" s="3">
         <v>1000</v>
       </c>
       <c r="L40" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00028_e0"</v>
+        <v>"EX_cpd00322_e0"</v>
       </c>
       <c r="M40" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.05,1000)</v>
+        <v>(-2,1000)</v>
       </c>
       <c r="N40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="B41" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="I41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="3" t="str">
         <f>IF(COUNTIF(G$2:G41,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="J41" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="L41" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00322_e0"</v>
-      </c>
-      <c r="M41" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-2,1000)</v>
+        <v/>
       </c>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>192</v>
-      </c>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>0.1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H42" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>0.1</v>
       </c>
-      <c r="I42" s="3" t="str">
+      <c r="I42" s="3">
         <f>IF(COUNTIF(G$2:G42,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1000</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v/>
+        <v>"EX_cpd00060_e0"</v>
+      </c>
+      <c r="M42" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-1,1000)</v>
       </c>
       <c r="N42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B43" s="3">
         <v>0.1</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -3322,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H43" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3344,7 +3366,7 @@
       </c>
       <c r="L43" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00060_e0"</v>
+        <v>"EX_cpd00066_e0"</v>
       </c>
       <c r="M43" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3354,13 +3376,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="3">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -3369,45 +3391,45 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H44" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I44" s="3">
         <f>IF(COUNTIF(G$2:G44,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J44" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
       </c>
       <c r="L44" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00066_e0"</v>
+        <v>"EX_cpd00119_e0"</v>
       </c>
       <c r="M44" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-1,1000)</v>
+        <v>(-2.5,1000)</v>
       </c>
       <c r="N44"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -3416,45 +3438,45 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I45" s="3">
         <f>IF(COUNTIF(G$2:G45,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J45" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
       </c>
       <c r="L45" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00119_e0"</v>
+        <v>"EX_cpd00053_e0"</v>
       </c>
       <c r="M45" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-2.5,1000)</v>
+        <v>(-2,1000)</v>
       </c>
       <c r="N45"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3">
         <v>0.2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3463,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3485,7 +3507,7 @@
       </c>
       <c r="L46" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00053_e0"</v>
+        <v>"EX_cpd00023_e0"</v>
       </c>
       <c r="M46" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3495,13 +3517,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3">
         <v>0.2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -3510,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3532,7 +3554,7 @@
       </c>
       <c r="L47" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00023_e0"</v>
+        <v>"EX_cpd00132_e0"</v>
       </c>
       <c r="M47" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3542,13 +3564,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3">
         <v>0.2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -3557,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H48" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3579,7 +3601,7 @@
       </c>
       <c r="L48" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00132_e0"</v>
+        <v>"EX_cpd00041_e0"</v>
       </c>
       <c r="M48" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3589,13 +3611,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -3604,45 +3626,45 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I49" s="3">
         <f>IF(COUNTIF(G$2:G49,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J49" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
       </c>
       <c r="L49" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00041_e0"</v>
+        <v>"EX_cpd00069_e0"</v>
       </c>
       <c r="M49" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-2,1000)</v>
+        <v>(-1,1000)</v>
       </c>
       <c r="N49"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3">
         <v>0.1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -3651,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H50" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3673,7 +3695,7 @@
       </c>
       <c r="L50" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00069_e0"</v>
+        <v>"EX_cpd00065_e0"</v>
       </c>
       <c r="M50" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3683,13 +3705,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="3">
         <v>0.1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3698,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3720,7 +3742,7 @@
       </c>
       <c r="L51" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00065_e0"</v>
+        <v>"EX_cpd00035_e0"</v>
       </c>
       <c r="M51" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3730,13 +3752,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="3">
         <v>0.1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -3745,10 +3767,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H52" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3767,7 +3789,7 @@
       </c>
       <c r="L52" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00035_e0"</v>
+        <v>"EX_cpd00156_e0"</v>
       </c>
       <c r="M52" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3777,13 +3799,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="3">
         <v>0.1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3792,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3814,7 +3836,7 @@
       </c>
       <c r="L53" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00156_e0"</v>
+        <v>"EX_cpd00051_e0"</v>
       </c>
       <c r="M53" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3824,13 +3846,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3">
         <v>0.1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3839,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3861,7 +3883,7 @@
       </c>
       <c r="L54" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00051_e0"</v>
+        <v>"EX_cpd00129_e0"</v>
       </c>
       <c r="M54" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3871,13 +3893,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3">
         <v>0.1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -3886,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3908,7 +3930,7 @@
       </c>
       <c r="L55" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00129_e0"</v>
+        <v>"EX_cpd00033_e0"</v>
       </c>
       <c r="M55" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3918,13 +3940,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3">
         <v>0.1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3933,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -3955,7 +3977,7 @@
       </c>
       <c r="L56" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00033_e0"</v>
+        <v>"EX_cpd00039_e0"</v>
       </c>
       <c r="M56" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -3965,13 +3987,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" s="3">
         <v>0.1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3980,10 +4002,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H57" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4002,7 +4024,7 @@
       </c>
       <c r="L57" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00039_e0"</v>
+        <v>"EX_cpd00161_e0"</v>
       </c>
       <c r="M57" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4012,13 +4034,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="3">
         <v>0.1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4027,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4049,7 +4071,7 @@
       </c>
       <c r="L58" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00161_e0"</v>
+        <v>"EX_cpd00107_e0"</v>
       </c>
       <c r="M58" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4059,13 +4081,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3">
         <v>0.1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -4074,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4096,7 +4118,7 @@
       </c>
       <c r="L59" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00107_e0"</v>
+        <v>"EX_cpd00054_e0"</v>
       </c>
       <c r="M59" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4106,13 +4128,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -4121,45 +4143,45 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H60" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I60" s="3">
         <f>IF(COUNTIF(G$2:G60,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J60" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00054_e0"</v>
+        <v>"EX_cpd00084_e0"</v>
       </c>
       <c r="M60" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-1,1000)</v>
+        <v>(-2,1000)</v>
       </c>
       <c r="N60"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B61" s="3">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -4168,45 +4190,45 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="H61" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="I61" s="3">
         <f>IF(COUNTIF(G$2:G61,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="J61" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-2</v>
+        <v>-0.1</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
       </c>
       <c r="L61" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00084_e0"</v>
+        <v>"EX_cpd00311_e0"</v>
       </c>
       <c r="M61" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-2,1000)</v>
+        <v>(-0.1,1000)</v>
       </c>
       <c r="N61"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B62" s="3">
         <v>0.01</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -4215,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H62" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4237,7 +4259,7 @@
       </c>
       <c r="L62" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00311_e0"</v>
+        <v>"EX_cpd00182_e0"</v>
       </c>
       <c r="M62" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4247,13 +4269,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" s="3">
         <v>0.01</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -4262,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H63" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4284,7 +4306,7 @@
       </c>
       <c r="L63" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00182_e0"</v>
+        <v>"EX_cpd01217_e0"</v>
       </c>
       <c r="M63" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4294,13 +4316,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B64" s="3">
         <v>0.01</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4309,10 +4331,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H64" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4331,7 +4353,7 @@
       </c>
       <c r="L64" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd01217_e0"</v>
+        <v>"EX_cpd00184_e0"</v>
       </c>
       <c r="M64" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4341,13 +4363,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" s="3">
         <v>0.01</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -4356,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H65" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4378,7 +4400,7 @@
       </c>
       <c r="L65" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00184_e0"</v>
+        <v>"EX_cpd00092_e0"</v>
       </c>
       <c r="M65" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4388,13 +4410,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>139</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -4403,45 +4425,45 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H66" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="I66" s="3">
         <f>IF(COUNTIF(G$2:G66,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J66" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00092_e0"</v>
+        <v>"EX_cpd00218_e0"</v>
       </c>
       <c r="M66" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.1,1000)</v>
+        <v>(-0.01,1000)</v>
       </c>
       <c r="N66"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3">
         <v>1E-3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -4450,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H67" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4472,7 +4494,7 @@
       </c>
       <c r="L67" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00218_e0"</v>
+        <v>"EX_cpd00305_e0"</v>
       </c>
       <c r="M67" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4482,57 +4504,40 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B68" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
         <v>1E-3</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="3" t="str">
         <f>IF(COUNTIF(G$2:G68,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J68" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.01</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="L68" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00305_e0"</v>
-      </c>
-      <c r="M68" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.01,1000)</v>
+        <v/>
       </c>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B69" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
@@ -4545,7 +4550,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I69" s="3" t="str">
         <f>IF(COUNTIF(G$2:G69,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
@@ -4557,45 +4562,62 @@
       </c>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B70" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="H70" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>2E-3</v>
-      </c>
-      <c r="I70" s="3" t="str">
+        <v>1E-3</v>
+      </c>
+      <c r="I70" s="3">
         <f>IF(COUNTIF(G$2:G70,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
+        <v>1E-3</v>
+      </c>
+      <c r="J70" s="3">
+        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
+        <v>-0.01</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1000</v>
       </c>
       <c r="L70" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v/>
+        <v>"EX_cpd00644_e0"</v>
+      </c>
+      <c r="M70" s="3" t="str">
+        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
+        <v>(-0.01,1000)</v>
       </c>
       <c r="N70"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B71" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>151</v>
+      <c r="C71" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4604,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H71" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4626,7 +4648,7 @@
       </c>
       <c r="L71" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00644_e0"</v>
+        <v>"EX_cpd00220_e0"</v>
       </c>
       <c r="M71" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4636,13 +4658,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B72" s="3">
         <v>1E-3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -4651,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H72" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4673,7 +4695,7 @@
       </c>
       <c r="L72" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00220_e0"</v>
+        <v>"EX_cpd00393_e0"</v>
       </c>
       <c r="M72" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4683,90 +4705,90 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B73" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I73" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I73" s="3" t="str">
         <f>IF(COUNTIF(G$2:G73,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>1E-3</v>
-      </c>
-      <c r="J73" s="3">
+        <v/>
+      </c>
+      <c r="L73" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v/>
+      </c>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="3">
+        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I74" s="3">
+        <f>IF(COUNTIF(G$2:G74,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J74" s="3">
         <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-0.01</v>
-      </c>
-      <c r="K73" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L73" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00393_e0"</v>
-      </c>
-      <c r="M73" s="3" t="str">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L74" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
+        <v>"EX_cpd00104_e0"</v>
+      </c>
+      <c r="M74" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.01,1000)</v>
-      </c>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>0.01</v>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f>IF(COUNTIF(G$2:G74,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
-      </c>
-      <c r="L74" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v/>
+        <v>(-0.005,1000)</v>
       </c>
       <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4775,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H75" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
@@ -4797,7 +4819,7 @@
       </c>
       <c r="L75" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd00104_e0"</v>
+        <v>"EX_cpd11606_e0"</v>
       </c>
       <c r="M75" s="3" t="str">
         <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
@@ -4807,89 +4829,42 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B76" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="1">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="3">
         <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I76" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I76" s="3" t="str">
         <f>IF(COUNTIF(G$2:G76,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J76" s="3">
-        <f>Table2[[#This Row],[Sum Conc.]]*-10</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="L76" s="1" t="str">
         <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v>"EX_cpd11606_e0"</v>
-      </c>
-      <c r="M76" s="3" t="str">
-        <f>"("&amp;Table2[[#This Row],[LB]]&amp;","&amp;Table2[[#This Row],[UB]]&amp;")"</f>
-        <v>(-0.005,1000)</v>
+        <v/>
       </c>
       <c r="N76"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="3">
-        <f>Table2[[#This Row],[Conc. in CDM (g/L)]]*Table2[[#This Row],[Amount]]</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I77" s="3" t="str">
-        <f>IF(COUNTIF(G$2:G77,Table2[[#This Row],[Exchange Reaction]])=1,SUMIF(Table2[Exchange Reaction],Table2[[#This Row],[Exchange Reaction]],Table2[Ind. Conc.]),"")</f>
-        <v/>
-      </c>
-      <c r="L77" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Exchange Reaction]]="","",""""&amp;Table2[[#This Row],[Exchange Reaction]]&amp;"""")</f>
-        <v/>
-      </c>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E2:E77">
+  <conditionalFormatting sqref="E2:E76">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G77">
+  <conditionalFormatting sqref="G2:G76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(G$2:G2,G2)=1</formula>
     </cfRule>
